--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
@@ -525,22 +525,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.062756666666666</v>
+        <v>0.2577906666666667</v>
       </c>
       <c r="H2">
-        <v>12.18827</v>
+        <v>0.7733719999999999</v>
       </c>
       <c r="I2">
-        <v>0.6829811567947218</v>
+        <v>0.1202607703685643</v>
       </c>
       <c r="J2">
-        <v>0.6829811567947219</v>
+        <v>0.1202607703685642</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -549,28 +549,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N2">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P2">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q2">
-        <v>341.1027335009688</v>
+        <v>0.007585232575999998</v>
       </c>
       <c r="R2">
-        <v>3069.92460150872</v>
+        <v>0.06826709318399998</v>
       </c>
       <c r="S2">
-        <v>0.6815984264650938</v>
+        <v>0.01771517423202668</v>
       </c>
       <c r="T2">
-        <v>0.6815984264650939</v>
+        <v>0.01771517423202668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.062756666666666</v>
+        <v>0.2577906666666667</v>
       </c>
       <c r="H3">
-        <v>12.18827</v>
+        <v>0.7733719999999999</v>
       </c>
       <c r="I3">
-        <v>0.6829811567947218</v>
+        <v>0.1202607703685643</v>
       </c>
       <c r="J3">
-        <v>0.6829811567947219</v>
+        <v>0.1202607703685642</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>0.510969</v>
       </c>
       <c r="O3">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P3">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q3">
-        <v>0.6919809037366665</v>
+        <v>0.04390767971866667</v>
       </c>
       <c r="R3">
-        <v>6.22782813363</v>
+        <v>0.395169117468</v>
       </c>
       <c r="S3">
-        <v>0.001382730329627997</v>
+        <v>0.1025455961365376</v>
       </c>
       <c r="T3">
-        <v>0.001382730329627998</v>
+        <v>0.1025455961365375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>5.65742</v>
       </c>
       <c r="I4">
-        <v>0.3170188432052782</v>
+        <v>0.8797392296314358</v>
       </c>
       <c r="J4">
-        <v>0.3170188432052782</v>
+        <v>0.8797392296314357</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -673,28 +673,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>83.95844533333333</v>
+        <v>0.029424</v>
       </c>
       <c r="N4">
-        <v>251.875336</v>
+        <v>0.08827199999999999</v>
       </c>
       <c r="O4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="P4">
-        <v>0.9979754487867319</v>
+        <v>0.1473063425232919</v>
       </c>
       <c r="Q4">
-        <v>158.3293959325689</v>
+        <v>0.05548797535999999</v>
       </c>
       <c r="R4">
-        <v>1424.96456339312</v>
+        <v>0.49939177824</v>
       </c>
       <c r="S4">
-        <v>0.3163770223216381</v>
+        <v>0.1295911682912653</v>
       </c>
       <c r="T4">
-        <v>0.3163770223216381</v>
+        <v>0.1295911682912652</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>5.65742</v>
       </c>
       <c r="I5">
-        <v>0.3170188432052782</v>
+        <v>0.8797392296314358</v>
       </c>
       <c r="J5">
-        <v>0.3170188432052782</v>
+        <v>0.8797392296314357</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,10 +741,10 @@
         <v>0.510969</v>
       </c>
       <c r="O5">
-        <v>0.002024551213268089</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="P5">
-        <v>0.00202455121326809</v>
+        <v>0.852693657476708</v>
       </c>
       <c r="Q5">
         <v>0.3211962488866666</v>
@@ -753,10 +753,10 @@
         <v>2.89076623998</v>
       </c>
       <c r="S5">
-        <v>0.0006418208836400921</v>
+        <v>0.7501480613401705</v>
       </c>
       <c r="T5">
-        <v>0.0006418208836400922</v>
+        <v>0.7501480613401704</v>
       </c>
     </row>
   </sheetData>
